--- a/public/downloads/2026年 01月売上.xlsx
+++ b/public/downloads/2026年 01月売上.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="106">
   <si>
     <t>総売上高</t>
   </si>
@@ -191,6 +191,21 @@
   </si>
   <si>
     <t>7回目</t>
+  </si>
+  <si>
+    <t>1月20日</t>
+  </si>
+  <si>
+    <t>8回目</t>
+  </si>
+  <si>
+    <t>田中 正子</t>
+  </si>
+  <si>
+    <t>石橋 加奈子</t>
+  </si>
+  <si>
+    <t>31回目</t>
   </si>
   <si>
     <t>MFIＰ</t>
@@ -3620,14 +3635,22 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" ht="18.6" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="A18" s="81" t="s">
+        <v>56</v>
+      </c>
       <c r="B18" s="82"/>
-      <c r="C18" s="81"/>
+      <c r="C18" s="81" t="s">
+        <v>54</v>
+      </c>
       <c r="D18" s="82"/>
-      <c r="E18" s="81"/>
+      <c r="E18" s="81" t="s">
+        <v>50</v>
+      </c>
       <c r="F18" s="83"/>
       <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
+      <c r="H18" s="84" t="s">
+        <v>57</v>
+      </c>
       <c r="I18" s="84"/>
       <c r="J18" s="84"/>
       <c r="K18" s="83"/>
@@ -3645,14 +3668,22 @@
       <c r="W18" s="86"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
+      <c r="A19" s="81" t="s">
+        <v>56</v>
+      </c>
       <c r="B19" s="82"/>
-      <c r="C19" s="81"/>
+      <c r="C19" s="81" t="s">
+        <v>58</v>
+      </c>
       <c r="D19" s="82"/>
-      <c r="E19" s="81"/>
+      <c r="E19" s="81" t="s">
+        <v>50</v>
+      </c>
       <c r="F19" s="83"/>
       <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
+      <c r="H19" s="84" t="s">
+        <v>51</v>
+      </c>
       <c r="I19" s="84"/>
       <c r="J19" s="84"/>
       <c r="K19" s="83"/>
@@ -3670,14 +3701,22 @@
       <c r="W19" s="86"/>
     </row>
     <row r="20" ht="18.6" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
+      <c r="A20" s="81" t="s">
+        <v>56</v>
+      </c>
       <c r="B20" s="82"/>
-      <c r="C20" s="81"/>
+      <c r="C20" s="81" t="s">
+        <v>59</v>
+      </c>
       <c r="D20" s="82"/>
-      <c r="E20" s="81"/>
+      <c r="E20" s="81" t="s">
+        <v>50</v>
+      </c>
       <c r="F20" s="83"/>
       <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
+      <c r="H20" s="84" t="s">
+        <v>60</v>
+      </c>
       <c r="I20" s="84"/>
       <c r="J20" s="84"/>
       <c r="K20" s="83"/>
@@ -3983,7 +4022,7 @@
       <c r="S33" s="83"/>
       <c r="T33" s="81"/>
       <c r="U33" s="86" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" ht="16.5" customHeight="1" spans="1:20" s="87" customFormat="1" x14ac:dyDescent="0.25">
@@ -10190,7 +10229,7 @@
         <v>38</v>
       </c>
       <c r="F1" s="111" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G1" s="111" t="s">
         <v>5</v>
@@ -10199,22 +10238,22 @@
         <v>9</v>
       </c>
       <c r="I1" s="113" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J1" s="113" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="113" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L1" s="113" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M1" s="114" t="s">
         <v>47</v>
       </c>
       <c r="N1" s="115" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="O1" s="100"/>
       <c r="P1" s="116"/>
@@ -12490,7 +12529,7 @@
       <c r="D113" s="82"/>
       <c r="E113" s="81"/>
       <c r="F113" s="127" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G113" s="93"/>
       <c r="H113" s="122"/>
@@ -12829,7 +12868,7 @@
         <v>38</v>
       </c>
       <c r="F1" s="139" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G1" s="141" t="s">
         <v>5</v>
@@ -12838,22 +12877,22 @@
         <v>9</v>
       </c>
       <c r="I1" s="113" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J1" s="113" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="113" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L1" s="113" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M1" s="114" t="s">
         <v>47</v>
       </c>
       <c r="N1" s="115" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="O1" s="108"/>
       <c r="P1" s="86"/>
@@ -14631,7 +14670,7 @@
         <v>38</v>
       </c>
       <c r="F1" s="158" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G1" s="160" t="s">
         <v>5</v>
@@ -14640,22 +14679,22 @@
         <v>9</v>
       </c>
       <c r="I1" s="162" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J1" s="162" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="162" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L1" s="162" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M1" s="161" t="s">
         <v>47</v>
       </c>
       <c r="N1" s="163" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="O1" s="164"/>
       <c r="P1" s="164"/>
@@ -15315,7 +15354,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="188" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B1" s="188"/>
       <c r="C1" s="188"/>
@@ -15332,7 +15371,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="192" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I1" s="189" t="s">
         <v>36</v>
@@ -15347,7 +15386,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="192" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -15355,7 +15394,7 @@
       <c r="B2" s="188"/>
       <c r="C2" s="188"/>
       <c r="D2" s="193" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E2" s="194">
         <v>8500</v>
@@ -15387,10 +15426,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="196" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B3" s="197" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C3" s="198" t="s">
         <v>33</v>
@@ -15447,7 +15486,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="193" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E4" s="194">
         <v>0</v>
@@ -15495,7 +15534,7 @@
         <v>250</v>
       </c>
       <c r="D5" s="193" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E5" s="194"/>
       <c r="F5" s="194">
@@ -15544,7 +15583,7 @@
         <v>1200</v>
       </c>
       <c r="D6" s="193" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E6" s="194"/>
       <c r="F6" s="194"/>
@@ -15591,7 +15630,7 @@
         <v>1500</v>
       </c>
       <c r="D7" s="193" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E7" s="194">
         <v>25200</v>
@@ -15640,7 +15679,7 @@
         <v>12000</v>
       </c>
       <c r="D8" s="193" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E8" s="194"/>
       <c r="F8" s="194">
@@ -15689,7 +15728,7 @@
         <v>15000</v>
       </c>
       <c r="D9" s="193" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E9" s="194"/>
       <c r="F9" s="194"/>
@@ -15735,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="193" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E10" s="194"/>
       <c r="F10" s="194">
@@ -15768,7 +15807,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="202" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B11" s="202"/>
       <c r="C11" s="200">
@@ -15776,7 +15815,7 @@
         <v>30000</v>
       </c>
       <c r="D11" s="193" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E11" s="194">
         <v>66000</v>
@@ -15806,12 +15845,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="188" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B12" s="188"/>
       <c r="C12" s="188"/>
       <c r="D12" s="193" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E12" s="194">
         <v>67500</v>
@@ -15844,7 +15883,7 @@
       <c r="B13" s="188"/>
       <c r="C13" s="188"/>
       <c r="D13" s="193" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E13" s="194"/>
       <c r="F13" s="194"/>
@@ -15872,16 +15911,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="196" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B14" s="197" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C14" s="198" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="193" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E14" s="194">
         <v>3000</v>
@@ -15921,7 +15960,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="193" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E15" s="194"/>
       <c r="F15" s="194">
@@ -15961,7 +16000,7 @@
         <v>250</v>
       </c>
       <c r="D16" s="193" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E16" s="194"/>
       <c r="F16" s="194">
@@ -15999,7 +16038,7 @@
         <v>1200</v>
       </c>
       <c r="D17" s="193" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E17" s="194"/>
       <c r="F17" s="194"/>
@@ -16112,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="186" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I21" s="206"/>
     </row>
@@ -16139,7 +16178,7 @@
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G27" s="186" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I27" s="206"/>
     </row>
@@ -16149,7 +16188,7 @@
     <row r="29" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I29" s="206"/>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.25">
@@ -16160,10 +16199,10 @@
     </row>
     <row r="33" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -16194,7 +16233,7 @@
     <row r="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" ht="19.5" customHeight="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="208" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="209"/>
       <c r="D2" s="209"/>
@@ -16220,11 +16259,11 @@
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="213" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E3" s="212"/>
       <c r="F3" s="214" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G3" s="214"/>
       <c r="H3" s="214"/>
@@ -16242,15 +16281,15 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="216" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C4" s="217"/>
       <c r="D4" s="151" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E4" s="217"/>
       <c r="F4" s="218" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G4" s="218"/>
       <c r="H4" s="218"/>
@@ -16832,31 +16871,31 @@
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="230" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="231" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="231" t="s">
-        <v>86</v>
-      </c>
       <c r="C1" s="231" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D1" s="232" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E1" s="232" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I1" s="233" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="233" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K1" s="234" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L1" s="235" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M1" s="236"/>
     </row>
@@ -16867,13 +16906,13 @@
       <c r="D2" s="239"/>
       <c r="E2" s="239"/>
       <c r="I2" s="240" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J2" s="240" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K2" s="241" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L2" s="242" t="s">
         <v>17</v>
